--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43621,6 +43621,43 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43658,6 +43658,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43695,6 +43695,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43732,6 +43732,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43769,6 +43769,41 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43804,6 +43804,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43839,6 +43839,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>4600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43874,6 +43874,43 @@
         <v>4600</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43948,6 +43948,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43985,6 +43985,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44020,6 +44020,80 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44094,6 +44094,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44131,6 +44131,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2099"/>
+  <dimension ref="A1:I2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75071,6 +75071,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2100" t="n">
+        <v>18700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2100"/>
+  <dimension ref="A1:I2101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75106,6 +75106,43 @@
         <v>18700</v>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2101"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75143,6 +75143,43 @@
         </is>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2102"/>
+  <dimension ref="A1:I2103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75180,6 +75180,41 @@
         </is>
       </c>
     </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2103" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2103"/>
+  <dimension ref="A1:I2104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75215,6 +75215,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2104" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2104"/>
+  <dimension ref="A1:I2105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75250,6 +75250,41 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2105" t="n">
+        <v>24900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2105"/>
+  <dimension ref="A1:I2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75285,6 +75285,43 @@
         <v>24900</v>
       </c>
     </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2106"/>
+  <dimension ref="A1:I2107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75322,6 +75322,43 @@
         </is>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2107"/>
+  <dimension ref="A1:I2108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75359,6 +75359,41 @@
         </is>
       </c>
     </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2108" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2108"/>
+  <dimension ref="A1:I2109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75394,6 +75394,43 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2109" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2109"/>
+  <dimension ref="A1:I2110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75431,6 +75431,43 @@
         </is>
       </c>
     </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2865"/>
+  <dimension ref="A1:I2866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101893,6 +101893,41 @@
         </is>
       </c>
     </row>
+    <row r="2866">
+      <c r="A2866" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2866" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2866" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2866" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2866" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2866" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2866" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2866"/>
+  <dimension ref="A1:I2867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101928,6 +101928,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2867">
+      <c r="A2867" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2867" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2867" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2867" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2867" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2867" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2867" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2867"/>
+  <dimension ref="A1:I2868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101965,6 +101965,43 @@
         </is>
       </c>
     </row>
+    <row r="2868">
+      <c r="A2868" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2868" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2868" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2868" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2868" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2868" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2868" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2868"/>
+  <dimension ref="A1:I2870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102002,6 +102002,76 @@
         </is>
       </c>
     </row>
+    <row r="2869">
+      <c r="A2869" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2869" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2869" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F2869" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G2869" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H2869" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2869" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2870" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2870" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2870" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2870" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2870" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2870" t="n">
+        <v>5200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2870"/>
+  <dimension ref="A1:I2871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102072,6 +102072,43 @@
         <v>5200</v>
       </c>
     </row>
+    <row r="2871">
+      <c r="A2871" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2871" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2871" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2871" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2871" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2871" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2871" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2871" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2871"/>
+  <dimension ref="A1:I2874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102109,6 +102109,117 @@
         </is>
       </c>
     </row>
+    <row r="2872">
+      <c r="A2872" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2872" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2872" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2872" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2872" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2872" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2872" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2873" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2873" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2873" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2873" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2873" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2873" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2874" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2874" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2874" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2874" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2874" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2874" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2874"/>
+  <dimension ref="A1:I2875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102220,6 +102220,41 @@
         </is>
       </c>
     </row>
+    <row r="2875">
+      <c r="A2875" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2875" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2875" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2875" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2875" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2875" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2875" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2875" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2875"/>
+  <dimension ref="A1:I2876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102255,6 +102255,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2876">
+      <c r="A2876" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2876" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2876" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2876" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2876" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2876" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2876" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2876" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7043.xlsx
+++ b/data/7043.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2876"/>
+  <dimension ref="A1:I2879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102292,6 +102292,117 @@
         </is>
       </c>
     </row>
+    <row r="2877">
+      <c r="A2877" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2877" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2877" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2877" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2877" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2877" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2877" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2877" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2878" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2878" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2878" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2878" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2878" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2878" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="D2879" t="inlineStr">
+        <is>
+          <t>JADEM</t>
+        </is>
+      </c>
+      <c r="E2879" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2879" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2879" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2879" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2879" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
